--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,15 +52,15 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
@@ -70,58 +70,61 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>gift</t>
@@ -130,49 +133,55 @@
     <t>nice</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>old</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -533,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -652,13 +661,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +713,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8421052631578947</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -730,13 +739,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -748,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -756,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -774,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -782,13 +791,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -800,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -808,13 +817,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.683982683982684</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -826,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -834,13 +843,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6571428571428571</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -852,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -860,13 +869,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6438356164383562</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -878,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -912,13 +921,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6305084745762712</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L14">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -938,13 +947,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6176470588235294</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -956,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -964,13 +973,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6171749598715891</v>
+        <v>0.6276083467094703</v>
       </c>
       <c r="L16">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="M16">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -990,13 +999,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6171428571428571</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1008,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1016,13 +1025,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5692307692307692</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1034,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1042,13 +1051,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.543859649122807</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1068,13 +1077,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.53125</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1086,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1094,13 +1103,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5138888888888888</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1112,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1120,13 +1129,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1138,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1146,13 +1155,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.4819277108433735</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1164,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1172,13 +1181,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.4786324786324787</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1190,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1198,13 +1207,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4730538922155689</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L25">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1216,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1224,13 +1233,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4360902255639098</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L26">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1242,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1250,13 +1259,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4197530864197531</v>
+        <v>0.46</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1276,13 +1285,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.41</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1294,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1302,13 +1311,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.3734939759036144</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1328,25 +1337,25 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3415233415233415</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L30">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="M30">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>268</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1354,13 +1363,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.311284046692607</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L31">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="M31">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1372,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>177</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1406,13 +1415,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.2679425837320574</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L33">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="M33">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1424,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1432,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.2602739726027397</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L34">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M34">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1450,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1458,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2446043165467626</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1476,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1484,13 +1493,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2357373519913886</v>
+        <v>0.2217438105489774</v>
       </c>
       <c r="L36">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M36">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1502,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1510,13 +1519,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2100313479623825</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="L37">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1528,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1536,13 +1545,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.180306905370844</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L38">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1554,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>641</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1562,13 +1571,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.1483443708609272</v>
+        <v>0.1735099337748344</v>
       </c>
       <c r="L39">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="M39">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1580,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>643</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1588,13 +1597,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.134020618556701</v>
+        <v>0.1726342710997442</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1606,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>252</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1614,13 +1623,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1046228710462287</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1632,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1640,25 +1649,25 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.09973045822102426</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1666,13 +1675,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.09318181818181819</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L43">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1684,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>399</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1692,25 +1701,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.05882352941176471</v>
+        <v>0.09318181818181819</v>
       </c>
       <c r="L44">
         <v>41</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>656</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1718,25 +1727,103 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.05322128851540616</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L45">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L46">
+        <v>41</v>
+      </c>
+      <c r="M46">
+        <v>42</v>
+      </c>
+      <c r="N46">
         <v>0.98</v>
       </c>
-      <c r="O45">
+      <c r="O46">
         <v>0.02000000000000002</v>
       </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>1014</v>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47">
+        <v>0.05037313432835821</v>
+      </c>
+      <c r="L47">
+        <v>54</v>
+      </c>
+      <c r="M47">
+        <v>54</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48">
+        <v>0.02938634399308557</v>
+      </c>
+      <c r="L48">
+        <v>34</v>
+      </c>
+      <c r="M48">
+        <v>34</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
